--- a/ipfilter.xlsx
+++ b/ipfilter.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\RTX-Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18876E31-7E37-4896-A84A-EA0132280AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD7E015-714B-423E-B9F0-EF5D09416CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21396" yWindow="5028" windowWidth="16440" windowHeight="18600" xr2:uid="{5849156E-2692-4D36-B216-E1D70D896147}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25416" xr2:uid="{5849156E-2692-4D36-B216-E1D70D896147}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Base" sheetId="2" r:id="rId1"/>
+    <sheet name="Add" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="143">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -180,140 +181,378 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>192.168.100.102</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8081-8086</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9601-9606</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>192.168.100.240</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>192.168.100.203</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>192.168.100.204</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>192.168.100.117</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>192.168.100.235</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7777-7778</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>192.168.100.250</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>192.168.100.200</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reject-nolog</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ftpdata</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5.42.199.51</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>www,https</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ftpdata,21</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60000-61000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>192.168.100.114</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>192.168.100.103</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>192.168.100.96</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>192.168.100.10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>192.168.1.0/24</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Type.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Static</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dynamic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ftp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>www</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>smtp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pop3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>submission</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>49.212.135.88,49.212.166.37</t>
+  </si>
+  <si>
+    <t>Static</t>
+  </si>
+  <si>
+    <t>reject</t>
+  </si>
+  <si>
+    <t>180.160.0.0/12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>5.42.199.0/24</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Type.</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>種別</t>
+  </si>
+  <si>
+    <t>送信元</t>
+  </si>
+  <si>
+    <t>宛先</t>
+  </si>
+  <si>
+    <t>Protocol</t>
+  </si>
+  <si>
+    <t>送信元ポート</t>
+  </si>
+  <si>
+    <t>宛先ポート</t>
+  </si>
+  <si>
+    <t>10.0.0.0/8</t>
+  </si>
+  <si>
+    <t>172.16.0.0/12</t>
+  </si>
+  <si>
+    <t>192.168.0.0/16</t>
+  </si>
+  <si>
+    <t>udp,tcp</t>
+  </si>
+  <si>
+    <t>netbios_ns-netbios_ssn</t>
+  </si>
+  <si>
+    <t>restrict</t>
+  </si>
+  <si>
+    <t>tcpfin</t>
+  </si>
+  <si>
+    <t>www,21,nntp</t>
+  </si>
+  <si>
+    <t>tcprst</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>icmp</t>
+  </si>
+  <si>
+    <t>established</t>
+  </si>
+  <si>
+    <t>tcp</t>
+  </si>
+  <si>
+    <t>ident</t>
+  </si>
+  <si>
+    <t>ftpdate</t>
+  </si>
+  <si>
+    <t>tcp,udp</t>
+  </si>
+  <si>
+    <t>domain</t>
+  </si>
+  <si>
+    <t>udp</t>
+  </si>
+  <si>
+    <t>ntp</t>
+  </si>
+  <si>
+    <t>192.168.100.1</t>
+  </si>
+  <si>
+    <t>esp</t>
+  </si>
+  <si>
     <t>172.16.0.0/16</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>192.168.100.102</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>8081-8086</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>9601-9606</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>192.168.100.240</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>192.168.100.203</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>192.168.100.204</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>192.168.100.117</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>192.168.100.235</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>7777-7778</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>192.168.100.250</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>192.168.100.200</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>49.212.135.88,49.212.166.37</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>192.168.100.244</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>reject-nolog</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>49.212.166.37</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ftpdata</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>5.42.199.51</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>www,https</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ftpdata,21</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>60000-61000</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>192.168.100.114</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>192.168.100.103</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>192.168.100.96</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>192.168.100.10</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>192.168.1.0/24</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Type.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Static</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Dynamic</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ftp</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>www</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>smtp</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>pop3</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>submission</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>51.15.0.0/16</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ip tunnel secure filter in 400100 400134 400135 400003 400020 400021 400022 400023 400024 400025 400030 400032 400105 400106 400108 400109 400110 400111 400113 400114 400115 400116 400117 400118 400119 400125 400126 400127 400104 400107 400128 400129 400131 400132 400133 400101 400102 400103 400112 400130</t>
+  </si>
+  <si>
+    <t> ip tunnel secure filter out 400013 400020 400021 400022 400023 400024 400025 400026 400027 400099 dynamic 400080 400081 400082 400083 400084 400085 400098 400099</t>
+  </si>
+  <si>
+    <t>ipip6(Tun1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ipver</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v4</t>
+  </si>
+  <si>
+    <t>v4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v6</t>
+  </si>
+  <si>
+    <t>v6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>icmp6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>240b:250:7c20:e00::/64</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2400:cb00::/32,2606:4700::/32,2803:f800::/32,2405:b500::/32,2405:8100::/32,2a06:98c0::/29,2c0f:f248::/32 240b:250:7c00:1300:245e:a7ff:fe42:6d41</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>240b:250:7c00:1300:245e:a7ff:fe42:6d41</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>240b:250:7c00:1300:192:168:100:96</t>
+  </si>
+  <si>
+    <t>240b:250:7c00:1300:192:168:100:115,240b:250:7c00:1300:192:168:100:14</t>
   </si>
 </sst>
 </file>
@@ -381,7 +620,35 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -719,24 +986,3637 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C70A836-0000-4135-A6A5-5B2CEC9235BB}">
-  <dimension ref="A3:H111"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F838257E-B640-41E0-95C7-CBEC6E500F51}">
+  <dimension ref="A1:N133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomLeft" activeCell="E127" sqref="E127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="8.796875" style="1"/>
-    <col min="4" max="5" width="16.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="8.796875" style="1"/>
+    <col min="3" max="4" width="8.796875" style="1"/>
+    <col min="5" max="5" width="26.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="21.59765625" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="M1" t="s">
+        <v>131</v>
+      </c>
+      <c r="N1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="N2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="1">
+        <v>201000</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="1">
+        <v>201001</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="1">
+        <v>201002</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="1">
+        <v>201003</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="1">
+        <v>201010</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="1">
+        <v>201011</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="1">
+        <v>201012</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="1">
+        <v>201013</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="1">
+        <v>201020</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13" s="1">
+        <v>135</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="1">
+        <v>201021</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I14" s="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="1">
+        <v>201022</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="1">
+        <v>201023</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>133</v>
+      </c>
+      <c r="B17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="1">
+        <v>201024</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H17" s="1">
+        <v>445</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>133</v>
+      </c>
+      <c r="B18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="1">
+        <v>201025</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18" s="1">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="1">
+        <v>201026</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>133</v>
+      </c>
+      <c r="B20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="1">
+        <v>201027</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>133</v>
+      </c>
+      <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="1">
+        <v>201030</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>133</v>
+      </c>
+      <c r="B22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="1">
+        <v>201031</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>133</v>
+      </c>
+      <c r="B23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="1">
+        <v>201032</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>133</v>
+      </c>
+      <c r="B24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="1">
+        <v>201033</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>133</v>
+      </c>
+      <c r="B25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="1">
+        <v>201034</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="1">
+        <v>201035</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>133</v>
+      </c>
+      <c r="B27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="1">
+        <v>201036</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>133</v>
+      </c>
+      <c r="B28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="1">
+        <v>201037</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>133</v>
+      </c>
+      <c r="B29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="1">
+        <v>201099</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>133</v>
+      </c>
+      <c r="B30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="1">
+        <v>201100</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I30" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>133</v>
+      </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="1">
+        <v>201101</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>133</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="1">
+        <v>201102</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I32" s="1">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>133</v>
+      </c>
+      <c r="B33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="1">
+        <v>201103</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I33" s="1">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>133</v>
+      </c>
+      <c r="B34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="1">
+        <v>201104</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I34" s="1">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>133</v>
+      </c>
+      <c r="B35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="1">
+        <v>400000</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>133</v>
+      </c>
+      <c r="B36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" s="1">
+        <v>400001</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>133</v>
+      </c>
+      <c r="B37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="1">
+        <v>400002</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>133</v>
+      </c>
+      <c r="B38" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="1">
+        <v>400003</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>133</v>
+      </c>
+      <c r="B39" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="1">
+        <v>400010</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>133</v>
+      </c>
+      <c r="B40" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" s="1">
+        <v>400011</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>133</v>
+      </c>
+      <c r="B41" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" s="1">
+        <v>400012</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>133</v>
+      </c>
+      <c r="B42" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42" s="1">
+        <v>400013</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>133</v>
+      </c>
+      <c r="B43" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" s="1">
+        <v>400020</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H43" s="1">
+        <v>135</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>133</v>
+      </c>
+      <c r="B44" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" s="1">
+        <v>400021</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I44" s="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>133</v>
+      </c>
+      <c r="B45" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45" s="1">
+        <v>400022</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>133</v>
+      </c>
+      <c r="B46" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" s="1">
+        <v>400023</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>133</v>
+      </c>
+      <c r="B47" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47" s="1">
+        <v>400024</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H47" s="1">
+        <v>445</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>133</v>
+      </c>
+      <c r="B48" t="s">
+        <v>63</v>
+      </c>
+      <c r="C48" s="1">
+        <v>400025</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I48" s="1">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>133</v>
+      </c>
+      <c r="B49" t="s">
+        <v>63</v>
+      </c>
+      <c r="C49" s="1">
+        <v>400026</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>133</v>
+      </c>
+      <c r="B50" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50" s="1">
+        <v>400027</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>133</v>
+      </c>
+      <c r="B51" t="s">
+        <v>63</v>
+      </c>
+      <c r="C51" s="1">
+        <v>400030</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>133</v>
+      </c>
+      <c r="B52" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52" s="1">
+        <v>400031</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>133</v>
+      </c>
+      <c r="B53" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" s="1">
+        <v>400032</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>133</v>
+      </c>
+      <c r="B54" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54" s="1">
+        <v>400033</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>133</v>
+      </c>
+      <c r="B55" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" s="1">
+        <v>400034</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>133</v>
+      </c>
+      <c r="B56" t="s">
+        <v>63</v>
+      </c>
+      <c r="C56" s="1">
+        <v>400035</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>133</v>
+      </c>
+      <c r="B57" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57" s="1">
+        <v>400036</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>133</v>
+      </c>
+      <c r="B58" t="s">
+        <v>63</v>
+      </c>
+      <c r="C58" s="1">
+        <v>400037</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>133</v>
+      </c>
+      <c r="B59" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59" s="1">
+        <v>400099</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>133</v>
+      </c>
+      <c r="B60" t="s">
+        <v>55</v>
+      </c>
+      <c r="C60" s="1">
+        <v>400100</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>133</v>
+      </c>
+      <c r="B61" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" s="1">
+        <v>400101</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>133</v>
+      </c>
+      <c r="B62" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" s="1">
+        <v>400102</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I62" s="1">
+        <v>8772</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>133</v>
+      </c>
+      <c r="B63" t="s">
+        <v>63</v>
+      </c>
+      <c r="C63" s="1">
+        <v>400103</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>133</v>
+      </c>
+      <c r="B64" t="s">
+        <v>63</v>
+      </c>
+      <c r="C64" s="1">
+        <v>400104</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I64" s="1">
+        <v>25565</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>133</v>
+      </c>
+      <c r="B65" t="s">
+        <v>63</v>
+      </c>
+      <c r="C65" s="1">
+        <v>400105</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I65" s="1">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>133</v>
+      </c>
+      <c r="B66" t="s">
+        <v>63</v>
+      </c>
+      <c r="C66" s="1">
+        <v>400106</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I66" s="1">
+        <v>31001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>133</v>
+      </c>
+      <c r="B67" t="s">
+        <v>63</v>
+      </c>
+      <c r="C67" s="1">
+        <v>400107</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I67" s="1">
+        <v>10022</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>133</v>
+      </c>
+      <c r="B68" t="s">
+        <v>63</v>
+      </c>
+      <c r="C68" s="1">
+        <v>400108</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>133</v>
+      </c>
+      <c r="B69" t="s">
+        <v>63</v>
+      </c>
+      <c r="C69" s="1">
+        <v>400109</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I69" s="1">
+        <v>27016</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>133</v>
+      </c>
+      <c r="B70" t="s">
+        <v>63</v>
+      </c>
+      <c r="C70" s="1">
+        <v>400110</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I70" s="1">
+        <v>28015</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>133</v>
+      </c>
+      <c r="B71" t="s">
+        <v>63</v>
+      </c>
+      <c r="C71" s="1">
+        <v>400111</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I71" s="1">
+        <v>10050</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>133</v>
+      </c>
+      <c r="B72" t="s">
+        <v>63</v>
+      </c>
+      <c r="C72" s="1">
+        <v>400112</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>133</v>
+      </c>
+      <c r="B73" t="s">
+        <v>63</v>
+      </c>
+      <c r="C73" s="1">
+        <v>400113</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I73" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>133</v>
+      </c>
+      <c r="B74" t="s">
+        <v>63</v>
+      </c>
+      <c r="C74" s="1">
+        <v>400114</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I74" s="1">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>133</v>
+      </c>
+      <c r="B75" t="s">
+        <v>63</v>
+      </c>
+      <c r="C75" s="1">
+        <v>400115</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I75" s="1">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
+        <v>133</v>
+      </c>
+      <c r="B76" t="s">
+        <v>63</v>
+      </c>
+      <c r="C76" s="1">
+        <v>400116</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
+        <v>133</v>
+      </c>
+      <c r="B77" t="s">
+        <v>63</v>
+      </c>
+      <c r="C77" s="1">
+        <v>400117</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I77" s="1">
+        <v>27015</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
+        <v>133</v>
+      </c>
+      <c r="B78" t="s">
+        <v>63</v>
+      </c>
+      <c r="C78" s="1">
+        <v>400118</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I78" s="1">
+        <v>40010</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
+        <v>133</v>
+      </c>
+      <c r="B79" t="s">
+        <v>63</v>
+      </c>
+      <c r="C79" s="1">
+        <v>400119</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
+        <v>133</v>
+      </c>
+      <c r="B80" t="s">
+        <v>63</v>
+      </c>
+      <c r="C80" s="1">
+        <v>400120</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
+        <v>133</v>
+      </c>
+      <c r="B81" t="s">
+        <v>63</v>
+      </c>
+      <c r="C81" s="1">
+        <v>400121</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H81" s="1">
+        <v>135</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
+        <v>133</v>
+      </c>
+      <c r="B82" t="s">
+        <v>63</v>
+      </c>
+      <c r="C82" s="1">
+        <v>400122</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A83" t="s">
+        <v>133</v>
+      </c>
+      <c r="B83" t="s">
+        <v>63</v>
+      </c>
+      <c r="C83" s="1">
+        <v>400123</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A84" t="s">
+        <v>133</v>
+      </c>
+      <c r="B84" t="s">
+        <v>63</v>
+      </c>
+      <c r="C84" s="1">
+        <v>400124</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I84" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A85" t="s">
+        <v>133</v>
+      </c>
+      <c r="B85" t="s">
+        <v>63</v>
+      </c>
+      <c r="C85" s="1">
+        <v>400125</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A86" t="s">
+        <v>133</v>
+      </c>
+      <c r="B86" t="s">
+        <v>63</v>
+      </c>
+      <c r="C86" s="1">
+        <v>400126</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A87" t="s">
+        <v>133</v>
+      </c>
+      <c r="B87" t="s">
+        <v>63</v>
+      </c>
+      <c r="C87" s="1">
+        <v>400127</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A88" t="s">
+        <v>133</v>
+      </c>
+      <c r="B88" t="s">
+        <v>63</v>
+      </c>
+      <c r="C88" s="1">
+        <v>400128</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I88" s="1">
+        <v>20022</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A89" t="s">
+        <v>133</v>
+      </c>
+      <c r="B89" t="s">
+        <v>63</v>
+      </c>
+      <c r="C89" s="1">
+        <v>400129</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I89" s="1">
+        <v>20023</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A90" t="s">
+        <v>133</v>
+      </c>
+      <c r="B90" t="s">
+        <v>63</v>
+      </c>
+      <c r="C90" s="1">
+        <v>400130</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I90" s="1">
+        <v>20024</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A91" t="s">
+        <v>133</v>
+      </c>
+      <c r="B91" t="s">
+        <v>63</v>
+      </c>
+      <c r="C91" s="1">
+        <v>400131</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I91" s="1">
+        <v>63333</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A92" t="s">
+        <v>133</v>
+      </c>
+      <c r="B92" t="s">
+        <v>63</v>
+      </c>
+      <c r="C92" s="1">
+        <v>400132</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I92" s="1">
+        <v>5201</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A93" t="s">
+        <v>133</v>
+      </c>
+      <c r="B93" t="s">
+        <v>63</v>
+      </c>
+      <c r="C93" s="1">
+        <v>400133</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I93" s="1">
+        <v>8899</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A94" t="s">
+        <v>133</v>
+      </c>
+      <c r="B94" t="s">
+        <v>55</v>
+      </c>
+      <c r="C94" s="1">
+        <v>400134</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A95" t="s">
+        <v>133</v>
+      </c>
+      <c r="B95" t="s">
+        <v>55</v>
+      </c>
+      <c r="C95" s="1">
+        <v>400135</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A96" t="s">
+        <v>133</v>
+      </c>
+      <c r="B96" t="s">
+        <v>63</v>
+      </c>
+      <c r="C96" s="1">
+        <v>500000</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A97" t="s">
+        <v>133</v>
+      </c>
+      <c r="B97" t="s">
+        <v>63</v>
+      </c>
+      <c r="C97" s="1">
+        <v>500001</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A98" t="s">
+        <v>133</v>
+      </c>
+      <c r="B98" t="s">
+        <v>63</v>
+      </c>
+      <c r="C98" s="1">
+        <v>500002</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A99" t="s">
+        <v>133</v>
+      </c>
+      <c r="B99" t="s">
+        <v>122</v>
+      </c>
+      <c r="C99" s="1">
+        <v>201080</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A100" t="s">
+        <v>133</v>
+      </c>
+      <c r="B100" t="s">
+        <v>122</v>
+      </c>
+      <c r="C100" s="1">
+        <v>201081</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A101" t="s">
+        <v>133</v>
+      </c>
+      <c r="B101" t="s">
+        <v>122</v>
+      </c>
+      <c r="C101" s="1">
+        <v>201082</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A102" t="s">
+        <v>133</v>
+      </c>
+      <c r="B102" t="s">
+        <v>122</v>
+      </c>
+      <c r="C102" s="1">
+        <v>201083</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A103" t="s">
+        <v>133</v>
+      </c>
+      <c r="B103" t="s">
+        <v>122</v>
+      </c>
+      <c r="C103" s="1">
+        <v>201084</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A104" t="s">
+        <v>133</v>
+      </c>
+      <c r="B104" t="s">
+        <v>122</v>
+      </c>
+      <c r="C104" s="1">
+        <v>201085</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A105" t="s">
+        <v>133</v>
+      </c>
+      <c r="B105" t="s">
+        <v>122</v>
+      </c>
+      <c r="C105" s="1">
+        <v>201098</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A106" t="s">
+        <v>133</v>
+      </c>
+      <c r="B106" t="s">
+        <v>122</v>
+      </c>
+      <c r="C106" s="1">
+        <v>201099</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A107" t="s">
+        <v>133</v>
+      </c>
+      <c r="B107" t="s">
+        <v>122</v>
+      </c>
+      <c r="C107" s="1">
+        <v>400080</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A108" t="s">
+        <v>133</v>
+      </c>
+      <c r="B108" t="s">
+        <v>122</v>
+      </c>
+      <c r="C108" s="1">
+        <v>400081</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A109" t="s">
+        <v>133</v>
+      </c>
+      <c r="B109" t="s">
+        <v>122</v>
+      </c>
+      <c r="C109" s="1">
+        <v>400082</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A110" t="s">
+        <v>133</v>
+      </c>
+      <c r="B110" t="s">
+        <v>122</v>
+      </c>
+      <c r="C110" s="1">
+        <v>400083</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A111" t="s">
+        <v>133</v>
+      </c>
+      <c r="B111" t="s">
+        <v>122</v>
+      </c>
+      <c r="C111" s="1">
+        <v>400084</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A112" t="s">
+        <v>133</v>
+      </c>
+      <c r="B112" t="s">
+        <v>122</v>
+      </c>
+      <c r="C112" s="1">
+        <v>400085</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A113" t="s">
+        <v>133</v>
+      </c>
+      <c r="B113" t="s">
+        <v>122</v>
+      </c>
+      <c r="C113" s="1">
+        <v>400098</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A114" t="s">
+        <v>133</v>
+      </c>
+      <c r="B114" t="s">
+        <v>122</v>
+      </c>
+      <c r="C114" s="1">
+        <v>400099</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A115" t="s">
+        <v>136</v>
+      </c>
+      <c r="B115" t="s">
+        <v>55</v>
+      </c>
+      <c r="C115" s="1">
+        <v>101000</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A116" t="s">
+        <v>136</v>
+      </c>
+      <c r="B116" t="s">
+        <v>55</v>
+      </c>
+      <c r="C116" s="1">
+        <v>101001</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A117" t="s">
+        <v>135</v>
+      </c>
+      <c r="B117" t="s">
+        <v>55</v>
+      </c>
+      <c r="C117" s="1">
+        <v>101002</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I117" s="1">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A118" t="s">
+        <v>135</v>
+      </c>
+      <c r="B118" t="s">
+        <v>55</v>
+      </c>
+      <c r="C118" s="1">
+        <v>101003</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G118" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A119" t="s">
+        <v>135</v>
+      </c>
+      <c r="B119" t="s">
+        <v>55</v>
+      </c>
+      <c r="C119" s="1">
+        <v>101099</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A120" t="s">
+        <v>135</v>
+      </c>
+      <c r="B120" t="s">
+        <v>55</v>
+      </c>
+      <c r="C120" s="1">
+        <v>101100</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A121" t="s">
+        <v>135</v>
+      </c>
+      <c r="B121" t="s">
+        <v>55</v>
+      </c>
+      <c r="C121" s="1">
+        <v>101101</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A122" t="s">
+        <v>135</v>
+      </c>
+      <c r="B122" t="s">
+        <v>55</v>
+      </c>
+      <c r="C122" s="1">
+        <v>101102</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A123" t="s">
+        <v>135</v>
+      </c>
+      <c r="B123" t="s">
+        <v>55</v>
+      </c>
+      <c r="C123" s="1">
+        <v>101103</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A124" t="s">
+        <v>135</v>
+      </c>
+      <c r="B124" t="s">
+        <v>55</v>
+      </c>
+      <c r="C124" s="1">
+        <v>101104</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A125" t="s">
+        <v>135</v>
+      </c>
+      <c r="B125" t="s">
+        <v>55</v>
+      </c>
+      <c r="C125" s="1">
+        <v>101105</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I125" s="1">
+        <v>3389</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A126" t="s">
+        <v>135</v>
+      </c>
+      <c r="B126" t="s">
+        <v>56</v>
+      </c>
+      <c r="C126" s="1">
+        <v>101080</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A127" t="s">
+        <v>135</v>
+      </c>
+      <c r="B127" t="s">
+        <v>56</v>
+      </c>
+      <c r="C127" s="1">
+        <v>101081</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A128" t="s">
+        <v>135</v>
+      </c>
+      <c r="B128" t="s">
+        <v>56</v>
+      </c>
+      <c r="C128" s="1">
+        <v>101082</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A129" t="s">
+        <v>135</v>
+      </c>
+      <c r="B129" t="s">
+        <v>56</v>
+      </c>
+      <c r="C129" s="1">
+        <v>101083</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A130" t="s">
+        <v>135</v>
+      </c>
+      <c r="B130" t="s">
+        <v>56</v>
+      </c>
+      <c r="C130" s="1">
+        <v>101084</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A131" t="s">
+        <v>135</v>
+      </c>
+      <c r="B131" t="s">
+        <v>56</v>
+      </c>
+      <c r="C131" s="1">
+        <v>101085</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A132" t="s">
+        <v>135</v>
+      </c>
+      <c r="B132" t="s">
+        <v>56</v>
+      </c>
+      <c r="C132" s="1">
+        <v>101098</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A133" t="s">
+        <v>135</v>
+      </c>
+      <c r="B133" t="s">
+        <v>56</v>
+      </c>
+      <c r="C133" s="1">
+        <v>101099</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="D1">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+      <formula>"reject-nolog"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+      <formula>"pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>"restrict"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+      <formula>"reject"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C70A836-0000-4135-A6A5-5B2CEC9235BB}">
+  <dimension ref="A3:H81"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="21.8984375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -762,7 +4642,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B4">
         <v>2000</v>
@@ -779,19 +4659,19 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B5">
-        <v>201000</v>
+        <v>201010</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>8</v>
@@ -805,19 +4685,19 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B6">
-        <v>201001</v>
+        <v>201011</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>8</v>
@@ -831,19 +4711,19 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B7">
-        <v>201002</v>
+        <v>201012</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>8</v>
@@ -857,19 +4737,19 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B8">
-        <v>201003</v>
+        <v>201013</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>8</v>
@@ -883,10 +4763,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B9">
-        <v>201010</v>
+        <v>201020</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>7</v>
@@ -895,13 +4775,13 @@
         <v>8</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="G9" s="1">
+        <v>135</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>8</v>
@@ -909,10 +4789,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B10">
-        <v>201011</v>
+        <v>201021</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>7</v>
@@ -921,24 +4801,24 @@
         <v>8</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>8</v>
+      <c r="H10" s="1">
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B11">
-        <v>201012</v>
+        <v>201022</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>7</v>
@@ -947,13 +4827,13 @@
         <v>8</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>8</v>
@@ -961,10 +4841,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B12">
-        <v>201013</v>
+        <v>201023</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>7</v>
@@ -973,24 +4853,24 @@
         <v>8</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B13">
-        <v>201020</v>
+        <v>201024</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>7</v>
@@ -1005,7 +4885,7 @@
         <v>14</v>
       </c>
       <c r="G13" s="1">
-        <v>135</v>
+        <v>445</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>8</v>
@@ -1013,10 +4893,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B14">
-        <v>201021</v>
+        <v>201025</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>7</v>
@@ -1034,18 +4914,18 @@
         <v>8</v>
       </c>
       <c r="H14" s="1">
-        <v>135</v>
+        <v>445</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B15">
-        <v>201022</v>
+        <v>201026</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>8</v>
@@ -1054,24 +4934,24 @@
         <v>8</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B16">
-        <v>201023</v>
+        <v>201027</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>8</v>
@@ -1080,36 +4960,36 @@
         <v>8</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B17">
-        <v>201024</v>
+        <v>201030</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="1">
-        <v>445</v>
+        <v>19</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>8</v>
@@ -1117,88 +4997,88 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B18">
-        <v>201025</v>
+        <v>201031</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H18" s="1">
-        <v>445</v>
+      <c r="H18" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B19">
-        <v>201026</v>
+        <v>201032</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B20">
-        <v>201027</v>
+        <v>201033</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B21">
-        <v>201030</v>
+        <v>201034</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>21</v>
@@ -1206,25 +5086,25 @@
       <c r="D21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>13</v>
+      <c r="E21" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B22">
-        <v>201031</v>
+        <v>201035</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>21</v>
@@ -1232,14 +5112,14 @@
       <c r="D22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>13</v>
+      <c r="E22" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>8</v>
@@ -1247,10 +5127,10 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B23">
-        <v>201032</v>
+        <v>201036</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>21</v>
@@ -1258,25 +5138,25 @@
       <c r="D23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>13</v>
+      <c r="E23" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B24">
-        <v>201033</v>
+        <v>201037</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>21</v>
@@ -1284,14 +5164,14 @@
       <c r="D24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>13</v>
+      <c r="E24" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>8</v>
@@ -1299,10 +5179,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B25">
-        <v>201034</v>
+        <v>201099</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>21</v>
@@ -1310,25 +5190,25 @@
       <c r="D25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>12</v>
+      <c r="E25" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B26">
-        <v>201035</v>
+        <v>201100</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>21</v>
@@ -1336,25 +5216,25 @@
       <c r="D26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>12</v>
+      <c r="E26" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>8</v>
+        <v>8</v>
+      </c>
+      <c r="H26" s="1">
+        <v>500</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B27">
-        <v>201036</v>
+        <v>201101</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>21</v>
@@ -1362,25 +5242,22 @@
       <c r="D27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>12</v>
+      <c r="E27" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B28">
-        <v>201037</v>
+        <v>201102</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>21</v>
@@ -1388,25 +5265,25 @@
       <c r="D28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>12</v>
+      <c r="E28" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>8</v>
+        <v>8</v>
+      </c>
+      <c r="H28" s="1">
+        <v>4500</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B29">
-        <v>201099</v>
+        <v>201103</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>21</v>
@@ -1415,24 +5292,24 @@
         <v>8</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>8</v>
+      <c r="H29" s="1">
+        <v>1701</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B30">
-        <v>201100</v>
+        <v>400101</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>21</v>
@@ -1440,25 +5317,25 @@
       <c r="D30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>30</v>
+      <c r="E30" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H30" s="1">
-        <v>500</v>
+      <c r="H30" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B31">
-        <v>201101</v>
+        <v>400102</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>21</v>
@@ -1466,22 +5343,25 @@
       <c r="D31" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>30</v>
+      <c r="E31" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="H31" s="1">
+        <v>8772</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B32">
-        <v>201102</v>
+        <v>400103</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>21</v>
@@ -1490,24 +5370,24 @@
         <v>8</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H32" s="1">
-        <v>4500</v>
+      <c r="H32" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B33">
-        <v>201103</v>
+        <v>400104</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>21</v>
@@ -1516,24 +5396,24 @@
         <v>8</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H33" s="1">
-        <v>1701</v>
+        <v>25565</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B34">
-        <v>201104</v>
+        <v>400105</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>21</v>
@@ -1542,365 +5422,359 @@
         <v>8</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H34" s="1">
-        <v>1701</v>
+        <v>31000</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B35">
-        <v>400000</v>
+        <v>400106</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H35" s="1" t="s">
-        <v>8</v>
+      <c r="H35" s="1">
+        <v>31001</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B36">
-        <v>400001</v>
+        <v>400107</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H36" s="1" t="s">
-        <v>8</v>
+      <c r="H36" s="1">
+        <v>10022</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B37">
-        <v>400002</v>
+        <v>400108</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B38">
-        <v>400003</v>
+        <v>400109</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H38" s="1" t="s">
-        <v>8</v>
+      <c r="H38" s="1">
+        <v>27016</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B39">
-        <v>400010</v>
+        <v>400110</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H39" s="1" t="s">
-        <v>8</v>
+      <c r="H39" s="1">
+        <v>28015</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B40">
-        <v>400011</v>
+        <v>400111</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H40" s="1" t="s">
-        <v>8</v>
+      <c r="H40" s="1">
+        <v>10050</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B41">
-        <v>400012</v>
+        <v>400112</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B42">
-        <v>400013</v>
+        <v>400113</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H42" s="1" t="s">
-        <v>8</v>
+      <c r="H42" s="1">
+        <v>500</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B43">
-        <v>400020</v>
+        <v>400114</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" s="1">
-        <v>135</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>8</v>
+        <v>28</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" s="1">
+        <v>4500</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B44">
-        <v>400021</v>
+        <v>400115</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H44" s="1">
-        <v>135</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B45">
-        <v>400022</v>
+        <v>400116</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B46">
-        <v>400023</v>
+        <v>400117</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H46" s="1" t="s">
-        <v>15</v>
+      <c r="H46" s="1">
+        <v>27015</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>400024</v>
+        <v>400120</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" s="1">
-        <v>445</v>
+        <v>23</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>400025</v>
+        <v>400121</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>8</v>
@@ -1909,73 +5783,73 @@
         <v>8</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H48" s="1">
-        <v>445</v>
+        <v>8</v>
+      </c>
+      <c r="G48" s="1">
+        <v>135</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B49">
-        <v>400026</v>
+        <v>400122</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>400027</v>
+        <v>400123</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>400030</v>
+        <v>400124</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>21</v>
@@ -1984,24 +5858,24 @@
         <v>8</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H51" s="1" t="s">
-        <v>8</v>
+      <c r="H51" s="1">
+        <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>400031</v>
+        <v>400125</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>21</v>
@@ -2010,24 +5884,24 @@
         <v>8</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B53">
-        <v>400032</v>
+        <v>400126</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>21</v>
@@ -2036,24 +5910,24 @@
         <v>8</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>400033</v>
+        <v>400127</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>21</v>
@@ -2062,24 +5936,24 @@
         <v>8</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B55">
-        <v>400034</v>
+        <v>400128</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>21</v>
@@ -2088,24 +5962,24 @@
         <v>8</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H55" s="1" t="s">
-        <v>27</v>
+      <c r="H55" s="1">
+        <v>20022</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B56">
-        <v>400035</v>
+        <v>400129</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>21</v>
@@ -2114,24 +5988,24 @@
         <v>8</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>8</v>
+        <v>8</v>
+      </c>
+      <c r="H56" s="1">
+        <v>20023</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B57">
-        <v>400036</v>
+        <v>400130</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>21</v>
@@ -2140,24 +6014,24 @@
         <v>8</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H57" s="1" t="s">
-        <v>29</v>
+      <c r="H57" s="1">
+        <v>20024</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B58">
-        <v>400037</v>
+        <v>400131</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>21</v>
@@ -2165,25 +6039,25 @@
       <c r="D58" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E58" s="2" t="s">
-        <v>12</v>
+      <c r="E58" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>8</v>
+        <v>8</v>
+      </c>
+      <c r="H58" s="1">
+        <v>63333</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B59">
-        <v>400099</v>
+        <v>400132</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>21</v>
@@ -2192,24 +6066,24 @@
         <v>8</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H59" s="1" t="s">
-        <v>8</v>
+      <c r="H59" s="1">
+        <v>5201</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B60">
-        <v>400101</v>
+        <v>400133</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>21</v>
@@ -2217,8 +6091,8 @@
       <c r="D60" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>33</v>
+      <c r="E60" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>23</v>
@@ -2226,94 +6100,94 @@
       <c r="G60" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H60" s="1" t="s">
-        <v>34</v>
+      <c r="H60" s="1">
+        <v>8899</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B61">
-        <v>400102</v>
+        <v>400134</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>33</v>
+        <v>65</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H61" s="1">
-        <v>8772</v>
+      <c r="H61" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B62">
-        <v>400103</v>
+        <v>400135</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B63">
-        <v>400104</v>
+        <v>500000</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H63" s="1">
-        <v>25565</v>
+      <c r="H63" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B64">
-        <v>400105</v>
+        <v>500001</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>21</v>
@@ -2322,1087 +6196,313 @@
         <v>8</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H64" s="1">
-        <v>31000</v>
+      <c r="H64" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B65">
-        <v>400106</v>
+        <v>500002</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H65" s="1">
-        <v>31001</v>
+      <c r="H65" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B66">
-        <v>400107</v>
+        <v>201080</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H66" s="1">
-        <v>10022</v>
+        <v>57</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B67">
-        <v>400108</v>
+        <v>201081</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B68">
-        <v>400109</v>
+        <v>201082</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H68" s="1">
-        <v>27016</v>
+        <v>58</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
+        <v>56</v>
+      </c>
+      <c r="B69">
+        <v>201083</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="B69">
-        <v>400110</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H69" s="1">
-        <v>28015</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B70">
-        <v>400111</v>
+        <v>201084</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H70" s="1">
-        <v>10050</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B71">
-        <v>400112</v>
+        <v>201085</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B72">
-        <v>400113</v>
+        <v>201098</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H72" s="1">
-        <v>500</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B73">
-        <v>400114</v>
+        <v>201099</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F73" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H73" s="1">
-        <v>4500</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B74">
-        <v>400115</v>
+        <v>400080</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H74" s="1">
-        <v>1701</v>
+        <v>57</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B75">
-        <v>400116</v>
+        <v>400081</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B76">
-        <v>400117</v>
+        <v>400082</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H76" s="1">
-        <v>27015</v>
+        <v>58</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
+        <v>56</v>
+      </c>
+      <c r="B77">
+        <v>400083</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="B77">
-        <v>400118</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H77" s="1">
-        <v>40010</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B78">
-        <v>400119</v>
+        <v>400084</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B79">
-        <v>400120</v>
+        <v>400085</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B80">
-        <v>400121</v>
+        <v>400098</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G80" s="1">
-        <v>135</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B81">
-        <v>400122</v>
+        <v>400099</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A82" t="s">
-        <v>59</v>
-      </c>
-      <c r="B82">
-        <v>400123</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A83" t="s">
-        <v>59</v>
-      </c>
-      <c r="B83">
-        <v>400124</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H83" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A84" t="s">
-        <v>59</v>
-      </c>
-      <c r="B84">
-        <v>400125</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A85" t="s">
-        <v>59</v>
-      </c>
-      <c r="B85">
-        <v>400126</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A86" t="s">
-        <v>59</v>
-      </c>
-      <c r="B86">
-        <v>400127</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A87" t="s">
-        <v>59</v>
-      </c>
-      <c r="B87">
-        <v>400128</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H87" s="1">
-        <v>20022</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A88" t="s">
-        <v>59</v>
-      </c>
-      <c r="B88">
-        <v>400129</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H88" s="1">
-        <v>20023</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A89" t="s">
-        <v>59</v>
-      </c>
-      <c r="B89">
-        <v>400130</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H89" s="1">
-        <v>20024</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A90" t="s">
-        <v>59</v>
-      </c>
-      <c r="B90">
-        <v>400131</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H90" s="1">
-        <v>63333</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A91" t="s">
-        <v>59</v>
-      </c>
-      <c r="B91">
-        <v>400132</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H91" s="1">
-        <v>5201</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A92" t="s">
-        <v>59</v>
-      </c>
-      <c r="B92">
-        <v>400133</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H92" s="1">
-        <v>8899</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A93" t="s">
-        <v>59</v>
-      </c>
-      <c r="B93">
-        <v>500000</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A94" t="s">
-        <v>59</v>
-      </c>
-      <c r="B94">
-        <v>500001</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H94" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A95" t="s">
-        <v>59</v>
-      </c>
-      <c r="B95">
-        <v>500002</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A96" t="s">
-        <v>60</v>
-      </c>
-      <c r="B96">
-        <v>201080</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A97" t="s">
-        <v>60</v>
-      </c>
-      <c r="B97">
-        <v>201081</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A98" t="s">
-        <v>60</v>
-      </c>
-      <c r="B98">
-        <v>201082</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A99" t="s">
-        <v>60</v>
-      </c>
-      <c r="B99">
-        <v>201083</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A100" t="s">
-        <v>60</v>
-      </c>
-      <c r="B100">
-        <v>201084</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A101" t="s">
-        <v>60</v>
-      </c>
-      <c r="B101">
-        <v>201085</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A102" t="s">
-        <v>60</v>
-      </c>
-      <c r="B102">
-        <v>201098</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A103" t="s">
-        <v>60</v>
-      </c>
-      <c r="B103">
-        <v>201099</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A104" t="s">
-        <v>60</v>
-      </c>
-      <c r="B104">
-        <v>400080</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A105" t="s">
-        <v>60</v>
-      </c>
-      <c r="B105">
-        <v>400081</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A106" t="s">
-        <v>60</v>
-      </c>
-      <c r="B106">
-        <v>400082</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A107" t="s">
-        <v>60</v>
-      </c>
-      <c r="B107">
-        <v>400083</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A108" t="s">
-        <v>60</v>
-      </c>
-      <c r="B108">
-        <v>400084</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A109" t="s">
-        <v>60</v>
-      </c>
-      <c r="B109">
-        <v>400085</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A110" t="s">
-        <v>60</v>
-      </c>
-      <c r="B110">
-        <v>400098</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A111" t="s">
-        <v>60</v>
-      </c>
-      <c r="B111">
-        <v>400099</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E111" s="1" t="s">
         <v>28</v>
       </c>
     </row>
